--- a/medicine/Psychotrope/The_Gentlemen/The_Gentlemen.xlsx
+++ b/medicine/Psychotrope/The_Gentlemen/The_Gentlemen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Gentlemen ou Les Gentlemen au Québec[1] est un film américano-britannique réalisé par Guy Ritchie et sorti en 2020.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Gentlemen ou Les Gentlemen au Québec est un film américano-britannique réalisé par Guy Ritchie et sorti en 2020.
 Le film reçoit globalement un bon accueil de la part de la presse, qui plébiscite le retour de Guy Ritchie au style de ses débuts : Arnaques, Crimes et Botanique (1998) et Snatch : Tu braques ou tu raques (2000). Le film est par ailleurs un bon succès commercial.
 Une série télévisée du même nom est diffusée en mars 2024 sur Netflix.
 </t>
@@ -513,11 +525,48 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Américain Mickey Pearson est devenu un important baron de la drogue à Londres. Il a bâti une solide « entreprise », implantée dans tout le Royaume-Uni. Après plusieurs années dans le « business » de la marijuana, il évoque plus ou moins la possibilité de se retirer. Cela va mettre la ville en ébullition : chantages, complots, trahisons, corruption et enlèvements. De nombreuses personnes vont tenter de convaincre Mickey pour devenir propriétaires de ses affaires très lucratives.
-Résumé détaillé
-Mickey Pearson se rend dans un bar, où il téléphone à son épouse. Il entend que cette dernière est rejointe par un homme inconnu, tandis qu'un homme arrive derrière lui brandissant un pistolet derrière sa nuque. Un coup de feu retenti et du sang est projeté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mickey Pearson se rend dans un bar, où il téléphone à son épouse. Il entend que cette dernière est rejointe par un homme inconnu, tandis qu'un homme arrive derrière lui brandissant un pistolet derrière sa nuque. Un coup de feu retenti et du sang est projeté.
 Quelques jours plus tard, l'homme de main de Mickey, Raymond, reçoit la visite de Fletcher (qui est rentré par effraction), détective privé engagé par le rédacteur en chef Big Dave (que Mickey avait auparavant humilié lors d'une soirée mondaine) pour le faire chanter (avec preuves à l'appui) contre de l'argent. Fletcher passe ainsi la soirée à raconter à Raymond le scénario d'un film qu'il veut faire d'après cette histoire. Le « film » de Fletcher commence ainsi.
 L'Américain Mickey Pearson est devenu un important baron de la drogue à Londres. Il a bâti une solide « entreprise », implantée dans tout le Royaume-Uni. Après plusieurs années dans le « business » de la marijuana, il évoque plus ou moins la possibilité de se retirer. Il envisage de vendre son empire pour 400 millions au milliardaire Mathew Berger, à qui il dévoile les secrets de sa réussite : il cultive en sous-sol sur des terrains appartenant aux lords à qui il paie l'entretien de leurs domaines. Mais la femme de Mickey, Rosalind, qui gère aussi les affaires de son mari, est inquiète des conséquences de cette vente.
 Un jour, un ambitieux gangster asiatique surnommé Œil Sec travaillant pour le vieux chef de la Triade Lord George, qu'il trahit en agissant dans son dos, offre à Rosalind Pierson des pièces automobiles dans le but de rencontrer son mari afin de lui faire une offre de rachat de son entreprise. Mickey, très vexé par l'attitude d'Œil Sec qui est ainsi passé par sa femme pour le rencontrer, refuse. Fletcher profite de cette scène pour rajouter une touche de violence dans son histoire qu'il raconte à Raymond. Mais après le rendez-vous avec Œil Sec, une des cultures de Mickey (celle qu'il avait fait visiter à Mathew) est braquée par des jeunes boxeurs. Ces derniers, qui ont volé la marchandise, publient sur les réseaux sociaux la vidéo de leur exploit.
@@ -532,31 +581,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original et français : The Gentlemen
 Titre québécois : Les Gentlemen
@@ -574,49 +625,51 @@
 Producteur délégué : Alan J. Wands
 Sociétés de production : STXfilms et Miramax
 Société de distribution : STX Entertainment (États-Unis), VVS Films (Québec), SND (France)
-Budget : 22 millions de dollars[2]
+Budget : 22 millions de dollars
 Pays de production :  États-Unis,  Royaume-Uni
 Langue originale : anglais
 Format : couleur
 Genre : Comédie, action et film de gangsters
 Durée : 113 minutes
-Dates de sortie[3] :
+Dates de sortie :
 Royaume-Uni : 3 décembre 2019 (avant-première au Curzon Mayfair Cinema de Londres), 1er janvier 2020 (sortie nationale)
 États-Unis : 24 janvier 2020
 France : 5 février 2020
 Belgique : 26 février 2020
-Classification[4] :
+Classification :
 Royaume-Uni : interdit aux moins de 18 ans
 États-Unis : R - Restricted (les enfants de moins de 17 ans doivent être accompagnés d'un adulte)
 France : tous publics avec avertissement</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Matthew McConaughey (VF : Axel Kiener ; VQ : Daniel Picard) : Mickey Pearson
 Charlie Hunnam (VF : Julien Allouf ; VQ : Adrien Bletton) : Raymond
@@ -638,46 +691,121 @@
 Bugzy Malone : (VF : Mohamed Sanou ; VQ : Gabriel Lessard) : Ernie
 Danny Griffin : Aslan
 Max Bennett : Brown
- Source et légende : version française (VF) sur RS Doublage[5] et AlloDoublage[6]
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[7]
+ Source et légende : version française (VF) sur RS Doublage et AlloDoublage
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genèse et développement
-En mai 2018, il est annoncé que Guy Ritchie va écrire et réaliser Toff Guys, un nouveau long métrage dans la veine de ses deux premiers films, Arnaques, Crimes et Botanique (1998) et Snatch : Tu braques ou tu raques (2000). Le projet est confirmé lors du festival de Cannes 2018, où Miramax acquiert les droits de distribution[8],[9]. Le tournage est alors annoncé pour octobre 2018[10].
-En février 2019, il est annoncé que le film s'intitule désormais Bush[11]. Il est aussi révélé que STX Entertainment distribuera finalement le film aux États-Unis et Miramax dans le reste du monde[12]. Quelques mois plus tard, le titre change à nouveau avec The Gentlemen[13].
-En mars 2021, alors qu'un projet de spin-off est évoqué pour la télévision, Guy Ritchie révèle qu'il avait initialement développé le projet comme une série télévisée, avant de le transposer en film[14].
-Attribution des rôles
-En octobre 2018, Matthew McConaughey, Kate Beckinsale, Henry Golding et Hugh Grant sont annoncés[15],[16]. Ils sont rejoints par Jeremy Strong, Jason Wong et Colin Farrell le mois suivant. Michelle Dockery remplace finalement Kate Beckinsale[17],[18],[19]. En décembre 2018, Lyne Renée rejoint elle aussi la distribution[20].
-Tournage
-Le tournage débute en novembre 2018[21]. Il a notamment lieu à Londres (Shepherd's Bush, Emirates Stadium, ...) et ses environs (West London Film Studios (en) à Hayes, Longcross Studios[22].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2018, il est annoncé que Guy Ritchie va écrire et réaliser Toff Guys, un nouveau long métrage dans la veine de ses deux premiers films, Arnaques, Crimes et Botanique (1998) et Snatch : Tu braques ou tu raques (2000). Le projet est confirmé lors du festival de Cannes 2018, où Miramax acquiert les droits de distribution,. Le tournage est alors annoncé pour octobre 2018.
+En février 2019, il est annoncé que le film s'intitule désormais Bush. Il est aussi révélé que STX Entertainment distribuera finalement le film aux États-Unis et Miramax dans le reste du monde. Quelques mois plus tard, le titre change à nouveau avec The Gentlemen.
+En mars 2021, alors qu'un projet de spin-off est évoqué pour la télévision, Guy Ritchie révèle qu'il avait initialement développé le projet comme une série télévisée, avant de le transposer en film.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2018, Matthew McConaughey, Kate Beckinsale, Henry Golding et Hugh Grant sont annoncés,. Ils sont rejoints par Jeremy Strong, Jason Wong et Colin Farrell le mois suivant. Michelle Dockery remplace finalement Kate Beckinsale. En décembre 2018, Lyne Renée rejoint elle aussi la distribution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute en novembre 2018. Il a notamment lieu à Londres (Shepherd's Bush, Emirates Stadium, ...) et ses environs (West London Film Studios (en) à Hayes, Longcross Studios.
 			Brompton Cemetery
 			Le pub Princess Victoria
 			Shepherd's Bush
@@ -686,68 +814,110 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critiques
-Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 75 % d'opinions favorables pour 276 critiques et une note moyenne de 6,46/10[26]. Sur Metacritic, il obtient une note moyenne de 51/100 pour 44 critiques[27]. Sur Allociné le film obtient une moyenne de 3,5/5 pour 33 critiques presse compilées[23].
-GQ a bien aimé le film : « Humour débile, gangsters chics, trafic de beuh et grosses bastons... Dans The Gentlemen, le réalisateur britannique Guy Ritchie renoue avec ses vieilles ficelles. Et c’est toujours aussi cool. »[28]
-L'Obs n'est pas totalement conquis : « malgré ses qualités, le film peine à se démarquer et à renouveler le genre. »[29]
-Par rapport au public, le film obtient la note moyenne de 7,2/10 sur SensCritique, basée sur plus de 9 000 retours[30].
-Box-office
-Le film sort aux États-Unis le 24 janvier 2020 dans 2 100 salles. Pour son premier week-end d'exploitation américaine, il enregistre 11 030 000 $ de recette et se classe 4e[31].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 75 % d'opinions favorables pour 276 critiques et une note moyenne de 6,46/10. Sur Metacritic, il obtient une note moyenne de 51/100 pour 44 critiques. Sur Allociné le film obtient une moyenne de 3,5/5 pour 33 critiques presse compilées.
+GQ a bien aimé le film : « Humour débile, gangsters chics, trafic de beuh et grosses bastons... Dans The Gentlemen, le réalisateur britannique Guy Ritchie renoue avec ses vieilles ficelles. Et c’est toujours aussi cool. »
+L'Obs n'est pas totalement conquis : « malgré ses qualités, le film peine à se démarquer et à renouveler le genre. »
+Par rapport au public, le film obtient la note moyenne de 7,2/10 sur SensCritique, basée sur plus de 9 000 retours.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film sort aux États-Unis le 24 janvier 2020 dans 2 100 salles. Pour son premier week-end d'exploitation américaine, il enregistre 11 030 000 $ de recette et se classe 4e.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
